--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P35_trail3 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P35_trail3 Features.xlsx
@@ -4434,7 +4434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4445,29 +4445,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4488,115 +4486,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4613,72 +4601,66 @@
         <v>3.431974328468601e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.963177462054386</v>
+        <v>2.034316232321193e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>5.501568063789012</v>
+        <v>2.697289967927518e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.034316232321193e-06</v>
+        <v>0.0738723018531502</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.697289967927518e-06</v>
+        <v>0.2603732896429544</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.0738723018531502</v>
+        <v>0.0731431523735437</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2603732896429544</v>
+        <v>1.878173431077863</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.0731431523735437</v>
+        <v>1.609107325333688</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.890066172700193</v>
+        <v>4.348583650122281</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.609107325333688</v>
+        <v>1.437336815221193e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.348583650122281</v>
+        <v>126233648.2220899</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.437336815221193e-15</v>
+        <v>9.497116100464742e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>126233648.2220899</v>
+        <v>22.90386720505052</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>9.497116100464742e-07</v>
+        <v>0.0002720300638601588</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>22.90386720505052</v>
+        <v>13.73844450468648</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0002720300638601588</v>
+        <v>1.111501798400683</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>13.73844450468648</v>
+        <v>0.05134427561407001</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.111501798400683</v>
+        <v>2.281417497614822</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.05134427561407001</v>
+        <v>0.9574151898189498</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.281417497614822</v>
+        <v>1.375826952916942</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9574151898189498</v>
+        <v>67</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.375826952916942</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.4589941674633333</v>
       </c>
     </row>
@@ -4693,72 +4675,66 @@
         <v>2.864632650824586e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-1.39049307423617</v>
+        <v>1.642332793955781e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>3.431886337003562</v>
+        <v>2.719549234414973e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.642332793955781e-06</v>
+        <v>0.06825392410563916</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.719549234414973e-06</v>
+        <v>0.2635108960358581</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.06825392410563916</v>
+        <v>0.07400134336168776</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2635108960358581</v>
+        <v>1.858894188945731</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.07400134336168776</v>
+        <v>1.517097998026024</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.855372511189919</v>
+        <v>4.158226424034413</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.517097998026024</v>
+        <v>2.723632829319329e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.158226424034413</v>
+        <v>66198044.31684289</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.723632829319329e-15</v>
+        <v>1.807028839218539e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>66198044.31684289</v>
+        <v>11.93545223001787</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.807028839218539e-06</v>
+        <v>0.0002649423638598214</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>11.93545223001787</v>
+        <v>13.1881848475053</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0002649423638598214</v>
+        <v>1.121650110213686</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>13.1881848475053</v>
+        <v>0.04608095363532737</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.121650110213686</v>
+        <v>2.182931316649332</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.04608095363532737</v>
+        <v>0.9555612700627403</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.182931316649332</v>
+        <v>1.475365687319432</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9555612700627403</v>
+        <v>22</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.475365687319432</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2568962230334814</v>
       </c>
     </row>
@@ -4773,72 +4749,66 @@
         <v>2.459604215082823e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.7665062159145225</v>
+        <v>1.334765256219981e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1.333105237751553</v>
+        <v>2.73693074978188e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.334765256219981e-06</v>
+        <v>0.06303068737904569</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.73693074978188e-06</v>
+        <v>0.2673899013695871</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.06303068737904569</v>
+        <v>0.07538229120829593</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2673899013695871</v>
+        <v>1.827448717098552</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.07538229120829593</v>
+        <v>1.481859672624652</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.811791131687511</v>
+        <v>3.555745532214092</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.481859672624652</v>
+        <v>4.459589256031716e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.555745532214092</v>
+        <v>40173608.03053645</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>4.459589256031716e-15</v>
+        <v>2.941346894735209e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>40173608.03053645</v>
+        <v>7.197414861167591</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.941346894735209e-06</v>
+        <v>0.0002604998458186574</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>7.197414861167591</v>
+        <v>13.36958815815456</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0002604998458186574</v>
+        <v>1.06421276587515</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>13.36958815815456</v>
+        <v>0.04656327613933177</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.06421276587515</v>
+        <v>2.071354969375347</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.04656327613933177</v>
+        <v>0.9536489600088235</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.071354969375347</v>
+        <v>1.510773930209827</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9536489600088235</v>
+        <v>0</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.510773930209827</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1895935645085957</v>
       </c>
     </row>
@@ -4853,72 +4823,66 @@
         <v>2.183952917472996e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.2204241744484475</v>
+        <v>1.078910106313775e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.3260605286332896</v>
+        <v>2.750878824119567e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.078910106313775e-06</v>
+        <v>0.057353055587822</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.750878824119567e-06</v>
+        <v>0.2675522743765616</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.057353055587822</v>
+        <v>0.07478871169182175</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2675522743765616</v>
+        <v>1.624294867219137</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.07478871169182175</v>
+        <v>1.502883332940416</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.576609091647993</v>
+        <v>6.035975048028799</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.502883332940416</v>
+        <v>5.913371135900308e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>6.035975048028799</v>
+        <v>34768693.20734299</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>5.913371135900308e-15</v>
+        <v>2.911720606494631e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>34768693.20734299</v>
+        <v>7.148449819795768</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.911720606494631e-06</v>
+        <v>0.0002400306812444924</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>7.148449819795768</v>
+        <v>13.37235403004467</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0002400306812444924</v>
+        <v>1.015558220849571</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>13.37235403004467</v>
+        <v>0.0429222509687731</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.015558220849571</v>
+        <v>2.124031761185172</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.0429222509687731</v>
+        <v>0.9416203619667647</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.124031761185172</v>
+        <v>1.780502669108265</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9416203619667647</v>
+        <v>1</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.780502669108265</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.181849598476185</v>
       </c>
     </row>
@@ -4933,72 +4897,66 @@
         <v>2.017360024782224e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.103723035202606</v>
+        <v>8.474099881267381e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.163844070891084</v>
+        <v>2.761967710449992e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>8.474099881267381e-07</v>
+        <v>0.04777996697416784</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.761967710449992e-06</v>
+        <v>0.2548104431530435</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.04777996697416784</v>
+        <v>0.06712576834057507</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2548104431530435</v>
+        <v>1.589088423251641</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.06712576834057507</v>
+        <v>1.412947067901128</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.529081990017849</v>
+        <v>4.82483033084074</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.412947067901128</v>
+        <v>1.356001846466261e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.82483033084074</v>
+        <v>15383491.39551762</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.356001846466261e-14</v>
+        <v>6.524079170311635e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>15383491.39551762</v>
+        <v>3.209002879612262</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>6.524079170311635e-06</v>
+        <v>0.0002430367620849544</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>3.209002879612262</v>
+        <v>9.232770003287438</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0002430367620849544</v>
+        <v>1.841738914773302</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.232770003287438</v>
+        <v>0.02071743593857727</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.841738914773302</v>
+        <v>2.700997384985148</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.02071743593857727</v>
+        <v>0.940356972230289</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.700997384985148</v>
+        <v>1.922552105328769</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.940356972230289</v>
+        <v>1</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.922552105328769</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1348386438918087</v>
       </c>
     </row>
@@ -5013,72 +4971,66 @@
         <v>1.94041271609513e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.1769944480937277</v>
+        <v>6.199344894879603e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.322014763081157</v>
+        <v>2.769971114013518e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>6.199344894879603e-07</v>
+        <v>0.03262906592475277</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.769971114013518e-06</v>
+        <v>0.2215243182227569</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.03262906592475277</v>
+        <v>0.05005064160516946</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2215243182227569</v>
+        <v>1.550484524875614</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.05005064160516946</v>
+        <v>1.412123593740574</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.489026216720731</v>
+        <v>4.035205260614347</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.412123593740574</v>
+        <v>1.938621879869134e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.035205260614347</v>
+        <v>10880756.07959673</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.938621879869134e-14</v>
+        <v>9.080632999772817e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>10880756.07959673</v>
+        <v>2.295150977378997</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>9.080632999772817e-06</v>
+        <v>0.0001862917297967332</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>2.295150977378997</v>
+        <v>8.997114101749423</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001862917297967332</v>
+        <v>1.66184413032023</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.997114101749423</v>
+        <v>0.01507995452346094</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.66184413032023</v>
+        <v>2.880541239108195</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01507995452346094</v>
+        <v>0.9384717170669937</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.880541239108195</v>
+        <v>1.923237290935497</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9384717170669937</v>
+        <v>1</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.923237290935497</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1384806553854984</v>
       </c>
     </row>
@@ -5093,72 +5045,66 @@
         <v>1.921299124469062e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.1375076217223068</v>
+        <v>5.741871312453494e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.306579541795925</v>
+        <v>2.774612809825104e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>5.741871312453494e-07</v>
+        <v>0.01594211361953287</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.774612809825104e-06</v>
+        <v>0.1786970339758674</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.01594211361953287</v>
+        <v>0.03212983104799067</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1786970339758674</v>
+        <v>1.534821077501062</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.03212983104799067</v>
+        <v>1.421524208715849</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.467710647959875</v>
+        <v>3.849600497812165</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.421524208715849</v>
+        <v>2.13006594247629e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.849600497812165</v>
+        <v>10171630.58644884</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2.13006594247629e-14</v>
+        <v>9.70022132416904e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>10171630.58644884</v>
+        <v>2.203810290617148</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>9.70022132416904e-06</v>
+        <v>0.0001550713726221635</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>2.203810290617148</v>
+        <v>9.700420901629284</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001550713726221635</v>
+        <v>1.190101946235848</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.700420901629284</v>
+        <v>0.01459193171148333</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.190101946235848</v>
+        <v>2.805285473139845</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01459193171148333</v>
+        <v>0.9377072561484358</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.805285473139845</v>
+        <v>1.910552820269235</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9377072561484358</v>
+        <v>1</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.910552820269235</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1532554028543061</v>
       </c>
     </row>
@@ -5173,72 +5119,66 @@
         <v>1.92174796239095e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.1122422476293489</v>
+        <v>5.741871312453494e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.312655677392034</v>
+        <v>2.776298746282698e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>5.741871312453494e-07</v>
+        <v>0.002321826191924739</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.776298746282698e-06</v>
+        <v>0.1463082738715654</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.002321826191924739</v>
+        <v>0.0213822027776191</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1463082738715654</v>
+        <v>1.525837601699261</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.0213822027776191</v>
+        <v>1.414773613312666</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.456902554739476</v>
+        <v>3.794184712777594</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.414773613312666</v>
+        <v>2.192741480916061e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.794184712777594</v>
+        <v>9934030.718305159</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2.192741480916061e-14</v>
+        <v>9.944894198349977e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>9934030.718305159</v>
+        <v>2.163906191756319</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>9.944894198349977e-06</v>
+        <v>0.0001575827380599719</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>2.163906191756319</v>
+        <v>10.32053073253178</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001575827380599719</v>
+        <v>1.135200403009863</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>10.32053073253178</v>
+        <v>0.01678466605799925</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.135200403009863</v>
+        <v>2.602955831247254</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01678466605799925</v>
+        <v>0.9389143923936807</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.602955831247254</v>
+        <v>1.92211481158654</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9389143923936807</v>
+        <v>1</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.92211481158654</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1610851992454521</v>
       </c>
     </row>
@@ -5253,72 +5193,66 @@
         <v>1.918986602456619e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.1199042603055537</v>
+        <v>5.741871312453494e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.30291600178943</v>
+        <v>2.775699325717358e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>5.741871312453494e-07</v>
+        <v>-0.008018968846026497</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.775699325717358e-06</v>
+        <v>0.1267181123939407</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.008018968846026497</v>
+        <v>0.01610736556071602</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1267181123939407</v>
+        <v>1.530375001745521</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01610736556071602</v>
+        <v>1.416994781590905</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.45931697206329</v>
+        <v>3.77712353163185</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.416994781590905</v>
+        <v>2.212595346469112e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.77712353163185</v>
+        <v>9979826.623004081</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2.212595346469112e-14</v>
+        <v>9.947270145890144e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>9979826.623004081</v>
+        <v>2.203677246948101</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>9.947270145890144e-06</v>
+        <v>0.0001578181104108686</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>2.203677246948101</v>
+        <v>10.00800151496882</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001578181104108686</v>
+        <v>1.155292088446838</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>10.00800151496882</v>
+        <v>0.01580707682472778</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.155292088446838</v>
+        <v>2.627713683686616</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01580707682472778</v>
+        <v>0.9385489025497455</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.627713683686616</v>
+        <v>1.924422146267978</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9385489025497455</v>
+        <v>1</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.924422146267978</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.1598440509465954</v>
       </c>
     </row>
@@ -5333,72 +5267,66 @@
         <v>1.904763639931644e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.1436313924118567</v>
+        <v>5.741871312453494e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.261208917713182</v>
+        <v>2.773380678489093e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>5.741871312453494e-07</v>
+        <v>-0.01583076259628561</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.773380678489093e-06</v>
+        <v>0.1170300797030568</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.01583076259628561</v>
+        <v>0.01393993481084312</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1170300797030568</v>
+        <v>1.541162164457892</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01393993481084312</v>
+        <v>1.41482957439257</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.464840574910264</v>
+        <v>3.776484715354022</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.41482957439257</v>
+        <v>2.213343958777349e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.776484715354022</v>
+        <v>10173661.82727224</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2.213343958777349e-14</v>
+        <v>9.922504146549976e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>10173661.82727224</v>
+        <v>2.290886139824033</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>9.922504146549976e-06</v>
+        <v>0.0001598950349213506</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>2.290886139824033</v>
+        <v>8.638963648119214</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001598950349213506</v>
+        <v>1.339911024317486</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.638963648119214</v>
+        <v>0.01193323714464763</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.339911024317486</v>
+        <v>2.823711838546447</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01193323714464763</v>
+        <v>0.9409875961824794</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.823711838546447</v>
+        <v>1.894923956844563</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9409875961824794</v>
+        <v>1</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.894923956844563</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.1475841427302834</v>
       </c>
     </row>
@@ -5413,72 +5341,66 @@
         <v>1.877976481068207e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.1692589290952873</v>
+        <v>5.741871312453494e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.199553668235998</v>
+        <v>2.769785079525632e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>5.741871312453494e-07</v>
+        <v>-0.02191948945603306</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.769785079525632e-06</v>
+        <v>0.1136212896233803</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.02191948945603306</v>
+        <v>0.01338715386897504</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1136212896233803</v>
+        <v>1.548212331885674</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.01338715386897504</v>
+        <v>1.412868775458141</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.471032573083095</v>
+        <v>3.785040482270258</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.412868775458141</v>
+        <v>2.203349110628062e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.785040482270258</v>
+        <v>10319169.37513253</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.203349110628062e-14</v>
+        <v>9.830985220990693e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>10319169.37513253</v>
+        <v>2.346241954084674</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>9.830985220990693e-06</v>
+        <v>0.0001765654784955069</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>2.346241954084674</v>
+        <v>8.460569996533394</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001765654784955069</v>
+        <v>1.637233074093021</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.460569996533394</v>
+        <v>0.01263877671579881</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.637233074093021</v>
+        <v>2.862064967753753</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01263877671579881</v>
+        <v>0.9405974001089904</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.862064967753753</v>
+        <v>1.896246558781516</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9405974001089904</v>
+        <v>1</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.896246558781516</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.1375972898322829</v>
       </c>
     </row>
@@ -5493,72 +5415,66 @@
         <v>1.840617999735471e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.1902425968813004</v>
+        <v>5.741871312453494e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.132614695275117</v>
+        <v>2.765261373038013e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>5.741871312453494e-07</v>
+        <v>-0.02645490176708338</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.765261373038013e-06</v>
+        <v>0.1144450476765877</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.02645490176708338</v>
+        <v>0.01379642726957786</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1144450476765877</v>
+        <v>1.548276823711668</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01379642726957786</v>
+        <v>1.406494233945919</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.469866775861235</v>
+        <v>3.80047674499785</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.406494233945919</v>
+        <v>2.185486928369209e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.80047674499785</v>
+        <v>10403325.25523234</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.185486928369209e-14</v>
+        <v>9.744697872144691e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>10403325.25523234</v>
+        <v>2.365334502163975</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>9.744697872144691e-06</v>
+        <v>0.0001605360881263492</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>2.365334502163975</v>
+        <v>9.524461608735633</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001605360881263492</v>
+        <v>1.243186241309527</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>9.524461608735633</v>
+        <v>0.01456309046196876</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.243186241309527</v>
+        <v>2.802863615492556</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01456309046196876</v>
+        <v>0.9393074735587851</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.802863615492556</v>
+        <v>1.932939744634537</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9393074735587851</v>
+        <v>1</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.932939744634537</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.147495419919649</v>
       </c>
     </row>
@@ -5573,72 +5489,66 @@
         <v>1.796814459861455e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.2070583776485457</v>
+        <v>5.741871312453494e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.06651698386693</v>
+        <v>2.760145053371075e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>5.741871312453494e-07</v>
+        <v>-0.02965379039255998</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.760145053371075e-06</v>
+        <v>0.1174375370892517</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.02965379039255998</v>
+        <v>0.0146701471495103</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1174375370892517</v>
+        <v>1.553166826949469</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.0146701471495103</v>
+        <v>1.401938247061941</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.474200653552733</v>
+        <v>3.823871686084583</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.401938247061941</v>
+        <v>2.158826551572376e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.823871686084583</v>
+        <v>10505579.95848468</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.158826551572376e-14</v>
+        <v>9.650397601522731e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>10505579.95848468</v>
+        <v>2.382636639411427</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>9.650397601522731e-06</v>
+        <v>0.0001598569415569765</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>2.382636639411427</v>
+        <v>10.54164503251213</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001598569415569765</v>
+        <v>1.117509805804111</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>10.54164503251213</v>
+        <v>0.01776430724604345</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.117509805804111</v>
+        <v>2.572218512157505</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01776430724604345</v>
+        <v>0.9400140875698398</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.572218512157505</v>
+        <v>1.921903906965498</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9400140875698398</v>
+        <v>5</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.921903906965498</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.1587620786422993</v>
       </c>
     </row>
@@ -5653,72 +5563,66 @@
         <v>1.749904419366683e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.2224903984164561</v>
+        <v>5.723320600720078e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.000465143336065</v>
+        <v>2.754651349907229e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>5.723320600720078e-07</v>
+        <v>-0.0322758623268633</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.754651349907229e-06</v>
+        <v>0.1210902567938106</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.0322758623268633</v>
+        <v>0.01570376542203209</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1210902567938106</v>
+        <v>1.55769884104071</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.01570376542203209</v>
+        <v>1.383096861377288</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.476898204804382</v>
+        <v>3.868988095615292</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.383096861377288</v>
+        <v>2.108771799947966e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.868988095615292</v>
+        <v>10663719.50946607</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.108771799947966e-14</v>
+        <v>9.48672043730976e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>10663719.50946607</v>
+        <v>2.397988034055397</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>9.48672043730976e-06</v>
+        <v>0.0001576010581344953</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>2.397988034055397</v>
+        <v>9.99026626868767</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001576010581344953</v>
+        <v>1.144476539405431</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>9.99026626868767</v>
+        <v>0.01572943981835616</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.144476539405431</v>
+        <v>2.644792486654541</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01572943981835616</v>
+        <v>0.9412138506625005</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.644792486654541</v>
+        <v>1.90316666725989</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9412138506625005</v>
+        <v>28</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.90316666725989</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.1578199490805586</v>
       </c>
     </row>
@@ -5733,72 +5637,66 @@
         <v>1.701275447244735e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.2375043833827017</v>
+        <v>5.681904126944254e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.9342886718787198</v>
+        <v>2.748865662006716e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>5.681904126944254e-07</v>
+        <v>-0.03480501699348349</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.748865662006716e-06</v>
+        <v>0.1250475489366558</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.03480501699348349</v>
+        <v>0.01684748077660254</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1250475489366558</v>
+        <v>1.55156515369232</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.01684748077660254</v>
+        <v>1.361124175583394</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.475687331916804</v>
+        <v>3.956171529920773</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.361124175583394</v>
+        <v>2.016852536262566e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.956171529920773</v>
+        <v>10751223.68411543</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.016852536262566e-14</v>
+        <v>9.171849264611465e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>10751223.68411543</v>
+        <v>2.331255860357369</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>9.171849264611465e-06</v>
+        <v>0.0001570755182138979</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>2.331255860357369</v>
+        <v>8.898042110851282</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001570755182138979</v>
+        <v>1.255008967284668</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>8.898042110851282</v>
+        <v>0.01243647825098814</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.255008967284668</v>
+        <v>2.78403350494588</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01243647825098814</v>
+        <v>0.9395519844105611</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.78403350494588</v>
+        <v>1.92348345781978</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9395519844105611</v>
+        <v>28</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.92348345781978</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1508540690836018</v>
       </c>
     </row>
@@ -5813,72 +5711,66 @@
         <v>1.651130180674353e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.2509925138554333</v>
+        <v>5.648159391296036e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.870681641744131</v>
+        <v>2.742812327050135e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>5.648159391296036e-07</v>
+        <v>-0.03748020556180806</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.742812327050135e-06</v>
+        <v>0.1292680526210117</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.03748020556180806</v>
+        <v>0.01811429843530767</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1292680526210117</v>
+        <v>1.551814288469424</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.01811429843530767</v>
+        <v>1.331785792788837</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.47880204782172</v>
+        <v>4.13733485890384</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.331785792788837</v>
+        <v>1.844093884011452e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.13733485890384</v>
+        <v>11619182.59899044</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.844093884011452e-14</v>
+        <v>8.457179304353949e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>11619182.59899044</v>
+        <v>2.489626403203707</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>8.457179304353949e-06</v>
+        <v>0.0001730234346023451</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>2.489626403203707</v>
+        <v>8.299994820209177</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001730234346023451</v>
+        <v>1.571186431429444</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.299994820209177</v>
+        <v>0.0119195695324219</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.571186431429444</v>
+        <v>2.819996390224948</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.0119195695324219</v>
+        <v>0.9384286389487349</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.819996390224948</v>
+        <v>1.909612655968212</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9384286389487349</v>
+        <v>28</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.909612655968212</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1406944553029914</v>
       </c>
     </row>
@@ -5893,72 +5785,66 @@
         <v>1.598737660963508e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.2592535555890764</v>
+        <v>5.648159391296036e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.8174673650047635</v>
+        <v>2.736479764860348e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>5.648159391296036e-07</v>
+        <v>-0.04055988643765601</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>2.736479764860348e-06</v>
+        <v>0.1337612339106409</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.04055988643765601</v>
+        <v>0.01953661292447706</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.1337612339106409</v>
+        <v>1.561302100134658</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.01953661292447706</v>
+        <v>1.308379947969853</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.494922650475002</v>
+        <v>4.544470171536926</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.308379947969853</v>
+        <v>1.528473303757269e-14</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.544470171536926</v>
+        <v>14025961.1689559</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.528473303757269e-14</v>
+        <v>7.031565745403246e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>14025961.1689559</v>
+        <v>3.006928644035038</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>7.031565745403246e-06</v>
+        <v>0.0001920143267904655</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>3.006928644035038</v>
+        <v>9.4692807055074</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001920143267904655</v>
+        <v>1.422412950479215</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>9.4692807055074</v>
+        <v>0.01721740184359172</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.422412950479215</v>
+        <v>2.684785813848004</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01721740184359172</v>
+        <v>0.9401821622662943</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.684785813848004</v>
+        <v>1.894620294463747</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9401821622662943</v>
+        <v>28</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.894620294463747</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.1371906446273224</v>
       </c>
     </row>
@@ -5973,72 +5859,66 @@
         <v>1.542788429795061e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.2555167596300966</v>
+        <v>5.641256107227268e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.7910016957693697</v>
+        <v>2.72984928025396e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>5.641256107227268e-07</v>
+        <v>-0.04379617786747428</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2.72984928025396e-06</v>
+        <v>0.1387350333532679</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.04379617786747428</v>
+        <v>0.02116508878443348</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1387350333532679</v>
+        <v>1.583637056973664</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.02116508878443348</v>
+        <v>1.320721102063915</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.522721187766358</v>
+        <v>4.861859903049161</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.320721102063915</v>
+        <v>1.056879997440393e-14</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.861859903049161</v>
+        <v>20238061.73303533</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.056879997440393e-14</v>
+        <v>4.919268528040387e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>20238061.73303533</v>
+        <v>4.328760032991405</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>4.919268528040387e-06</v>
+        <v>0.0002249923623591251</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>4.328760032991405</v>
+        <v>13.60140128855956</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0002249923623591251</v>
+        <v>0.9756902425214726</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>13.60140128855956</v>
+        <v>0.04162316337861642</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>0.9756902425214726</v>
+        <v>2.105562741613544</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.04162316337861642</v>
+        <v>0.9418237789212888</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.105562741613544</v>
+        <v>1.933496392949291</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9418237789212888</v>
+        <v>28</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.933496392949291</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.1469380355584063</v>
       </c>
     </row>
@@ -6053,72 +5933,66 @@
         <v>1.484419099560482e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.237890075072151</v>
+        <v>5.549194030653687e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.8010649024956593</v>
+        <v>2.723033587652062e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>5.549194030653687e-07</v>
+        <v>-0.04606950273436244</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>2.723033587652062e-06</v>
+        <v>0.1442892812178266</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.04606950273436244</v>
+        <v>0.02294096713099468</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1442892812178266</v>
+        <v>1.756673787450901</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.02294096713099468</v>
+        <v>1.477975222585973</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.710905471491774</v>
+        <v>3.523643536707695</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.477975222585973</v>
+        <v>9.952291971056104e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>3.523643536707695</v>
+        <v>18831137.33057902</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>9.952291971056104e-15</v>
+        <v>6.126147400886614e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>18831137.33057902</v>
+        <v>3.529199504801677</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>6.126147400886614e-06</v>
+        <v>0.0002706051204364764</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>3.529199504801677</v>
+        <v>13.22146865006708</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0002706051204364764</v>
+        <v>1.12440797456155</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>13.22146865006708</v>
+        <v>0.0473037324107632</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.12440797456155</v>
+        <v>2.103694338207332</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.0473037324107632</v>
+        <v>0.9510040797532311</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.103694338207332</v>
+        <v>1.716312394284915</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9510040797532311</v>
+        <v>27</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.716312394284915</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.1434970004789893</v>
       </c>
     </row>
@@ -6133,72 +6007,66 @@
         <v>1.42692275296476e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.2127284497641568</v>
+        <v>5.373130252231394e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-0.8378800610451207</v>
+        <v>2.716231628116782e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>5.373130252231394e-07</v>
+        <v>-0.04728905734998074</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>2.716231628116782e-06</v>
+        <v>0.1498564350446763</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.04728905734998074</v>
+        <v>0.02469179848243839</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1498564350446763</v>
+        <v>1.79570776514962</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.02469179848243839</v>
+        <v>1.392614933767273</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.761958452169459</v>
+        <v>4.412307458580937</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.392614933767273</v>
+        <v>6.166594627984001e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.412307458580937</v>
+        <v>29936944.8936327</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>6.166594627984001e-15</v>
+        <v>3.938556812067004e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>29936944.8936327</v>
+        <v>5.526629566424058</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>3.938556812067004e-06</v>
+        <v>0.0002998365805560833</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>5.526629566424058</v>
+        <v>12.54881601934024</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0002998365805560833</v>
+        <v>1.277064319274878</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>12.54881601934024</v>
+        <v>0.04721610093146557</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.277064319274878</v>
+        <v>2.092344607481426</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.04721610093146557</v>
+        <v>0.949977538167517</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.092344607481426</v>
+        <v>1.705704281718863</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.949977538167517</v>
+        <v>27</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.705704281718863</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.1880942373619301</v>
       </c>
     </row>
@@ -6213,72 +6081,66 @@
         <v>1.372518815251153e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.1863875799486867</v>
+        <v>5.162770043461845e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-0.8889011411610195</v>
+        <v>2.709565560431055e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>5.162770043461845e-07</v>
+        <v>-0.04793034865851826</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>2.709565560431055e-06</v>
+        <v>0.155259524196356</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.04793034865851826</v>
+        <v>0.02640115915560652</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.155259524196356</v>
+        <v>1.852271164371619</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.02640115915560652</v>
+        <v>1.498842381629539</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.845488758750515</v>
+        <v>4.773550712618899</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.498842381629539</v>
+        <v>2.381074122394881e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.773550712618899</v>
+        <v>76700032.07418805</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>2.381074122394881e-15</v>
+        <v>1.548816333324235e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>76700032.07418805</v>
+        <v>14.00760885921242</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.548816333324235e-06</v>
+        <v>0.0002812954463103438</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>14.00760885921242</v>
+        <v>13.00931105023601</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0002812954463103438</v>
+        <v>1.176462102413214</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>13.00931105023601</v>
+        <v>0.04760705287036716</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.176462102413214</v>
+        <v>2.165037969688234</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.04760705287036716</v>
+        <v>0.9548757625369219</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.165037969688234</v>
+        <v>1.566275013068154</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9548757625369219</v>
+        <v>27</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.566275013068154</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.3259266622928339</v>
       </c>
     </row>
@@ -6293,72 +6155,66 @@
         <v>1.322040342169786e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.1625087901714399</v>
+        <v>4.945974097472039e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-0.9463599210080416</v>
+        <v>2.703090025209568e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>4.945974097472039e-07</v>
+        <v>-0.04817388709580393</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>2.703090025209568e-06</v>
+        <v>0.1605239645731596</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.04817388709580393</v>
+        <v>0.02808701508590539</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1605239645731596</v>
+        <v>1.895761752774545</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.02808701508590539</v>
+        <v>1.633131076979683</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.907097903114491</v>
+        <v>4.641814281786822</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.633131076979683</v>
+        <v>1.075696846078238e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.641814281786822</v>
+        <v>165876890.7738734</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.075696846078238e-15</v>
+        <v>7.237826540165527e-07</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>165876890.7738734</v>
+        <v>29.5979524291851</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>7.237826540165527e-07</v>
+        <v>0.0002490209390208339</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>29.5979524291851</v>
+        <v>13.27371310320245</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0002490209390208339</v>
+        <v>1.082134624919882</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>13.27371310320245</v>
+        <v>0.04387536270362814</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.082134624919882</v>
+        <v>2.365233227076177</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.04387536270362814</v>
+        <v>0.9569978890312451</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.365233227076177</v>
+        <v>1.405535172235534</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9569978890312451</v>
+        <v>27</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.405535172235534</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.5513745179956959</v>
       </c>
     </row>
@@ -6373,72 +6229,66 @@
         <v>1.275483255980907e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.1428106579106679</v>
+        <v>4.734478172207987e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.005318952647918</v>
+        <v>2.69684424138908e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>4.734478172207987e-07</v>
+        <v>-0.04794912142707346</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2.69684424138908e-06</v>
+        <v>0.1657016874196699</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.04794912142707346</v>
+        <v>0.02975469044418007</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1657016874196699</v>
+        <v>1.906112990311062</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.02975469044418007</v>
+        <v>1.703974351385489</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.930331553778368</v>
+        <v>5.00896567024515</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.703974351385489</v>
+        <v>6.515081285518415e-16</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>5.00896567024515</v>
+        <v>273052913.5459763</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>6.515081285518415e-16</v>
+        <v>4.400518919313699e-07</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>273052913.5459763</v>
+        <v>48.5750737254624</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>4.400518919313699e-07</v>
+        <v>0.0002045296680792889</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>48.5750737254624</v>
+        <v>13.39766939504636</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0002045296680792889</v>
+        <v>1.022467964265796</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>13.39766939504636</v>
+        <v>0.03671257334468141</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.022467964265796</v>
+        <v>2.775371842770215</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.03671257334468141</v>
+        <v>0.9568413683032665</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.775371842770215</v>
+        <v>1.294959678814998</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9568413683032665</v>
+        <v>27</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.294959678814998</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.9355220174865841</v>
       </c>
     </row>
@@ -6815,7 +6665,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.497527583347699</v>
+        <v>1.538951969814175</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.275044028675169</v>
@@ -6904,7 +6754,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.52510784310509</v>
+        <v>1.565537436328466</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.202211698166698</v>
@@ -6993,7 +6843,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.577017318954675</v>
+        <v>1.614347957303653</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.195853979647281</v>
@@ -7082,7 +6932,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.615772569880418</v>
+        <v>1.647716181164458</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.271343484316146</v>
@@ -7171,7 +7021,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.637884942224283</v>
+        <v>1.6610966860436</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.040788182048687</v>
@@ -7260,7 +7110,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.75857002067161</v>
+        <v>1.763450158247886</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.360613296666114</v>
@@ -7349,7 +7199,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.766336916912586</v>
+        <v>1.766655182134588</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.319218553743402</v>
@@ -7438,7 +7288,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.782154655810777</v>
+        <v>1.77648987269764</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.388462906160828</v>
@@ -7527,7 +7377,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.786904015261081</v>
+        <v>1.778389403100756</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.458571833931869</v>
@@ -7616,7 +7466,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.792566816333471</v>
+        <v>1.777732782120224</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.326375190020401</v>
@@ -7705,7 +7555,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.792177313281333</v>
+        <v>1.778588429013065</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.421712666649519</v>
@@ -7794,7 +7644,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.795780466471453</v>
+        <v>1.780957857779099</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.337952874328407</v>
@@ -7883,7 +7733,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.788388831574958</v>
+        <v>1.772863842348315</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.285722355721818</v>
@@ -7972,7 +7822,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.786219286318873</v>
+        <v>1.771454029869028</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.376935674356659</v>
@@ -8061,7 +7911,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.784589857019806</v>
+        <v>1.768897193796198</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.336977742914184</v>
@@ -8150,7 +8000,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.781776302978853</v>
+        <v>1.765276528388459</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.30711343125917</v>
@@ -8239,7 +8089,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.783578370455666</v>
+        <v>1.761998335184388</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.336683663842817</v>
@@ -8328,7 +8178,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.860998357062871</v>
+        <v>1.818491723934049</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.199167048501939</v>
@@ -8417,7 +8267,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.854762784374288</v>
+        <v>1.821948951160129</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.520584405980903</v>
@@ -8506,7 +8356,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.856124440890897</v>
+        <v>1.82437654690542</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.359065553647963</v>
@@ -8595,7 +8445,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.850668504038355</v>
+        <v>1.820848418210937</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.213324291885574</v>
@@ -8684,7 +8534,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.756570695028512</v>
+        <v>1.746423500037744</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.346248977720643</v>
@@ -8773,7 +8623,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.756498231138726</v>
+        <v>1.75210871906474</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.301918039059814</v>
@@ -8862,7 +8712,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.749296690025522</v>
+        <v>1.741255641455358</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.332838984392839</v>
@@ -8951,7 +8801,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.751161618997483</v>
+        <v>1.741257509335947</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.288224949018865</v>
@@ -9040,7 +8890,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.748964509635874</v>
+        <v>1.738830249500169</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.312968063990935</v>
@@ -9129,7 +8979,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.744487201438948</v>
+        <v>1.730579944868782</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.294402471535456</v>
@@ -9218,7 +9068,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.745168122378027</v>
+        <v>1.730726939343107</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.383960185971821</v>
@@ -9307,7 +9157,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.747489230184676</v>
+        <v>1.728304819862847</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.383667789180131</v>
@@ -9396,7 +9246,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.742201540558976</v>
+        <v>1.71958254101654</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.318419759112502</v>
@@ -9485,7 +9335,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.708267126096221</v>
+        <v>1.688737355442101</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.412184511266743</v>
@@ -9574,7 +9424,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.679685512051448</v>
+        <v>1.671235758737943</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.313926771924547</v>
@@ -9663,7 +9513,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.683284571803106</v>
+        <v>1.672975186472599</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.268474707667872</v>
@@ -9752,7 +9602,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.683225160129031</v>
+        <v>1.670672165859062</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.327416795678569</v>
@@ -9841,7 +9691,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.687435785986189</v>
+        <v>1.675332389052399</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.3478724565706</v>
@@ -9930,7 +9780,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.694030821189908</v>
+        <v>1.67929242800733</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.149205122744767</v>
@@ -10019,7 +9869,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.761692409761387</v>
+        <v>1.736150927510751</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.266095671821903</v>
@@ -10108,7 +9958,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.765341270847076</v>
+        <v>1.739366345348196</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.295650245860548</v>
@@ -10197,7 +10047,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.763289708026951</v>
+        <v>1.740880404178043</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.37726764465323</v>
@@ -10286,7 +10136,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.756639678799422</v>
+        <v>1.735977895159311</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.310051202675437</v>
@@ -10375,7 +10225,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.75004489868961</v>
+        <v>1.731688470531626</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.376361501036345</v>
@@ -10464,7 +10314,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.691848401665222</v>
+        <v>1.685169783161865</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.356270690801824</v>
@@ -10553,7 +10403,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.6921456402157</v>
+        <v>1.689443149974428</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.409637772388091</v>
@@ -10642,7 +10492,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.692250322916614</v>
+        <v>1.69194182041466</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.393262972765775</v>
@@ -10731,7 +10581,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.698705076299953</v>
+        <v>1.69988236595587</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.435112510586263</v>
@@ -10820,7 +10670,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.75055616646884</v>
+        <v>1.737848650953463</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.590691637858596</v>
@@ -10909,7 +10759,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.759112157555746</v>
+        <v>1.749321004061558</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.486164960777254</v>
@@ -10998,7 +10848,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.707994566827577</v>
+        <v>1.706171138916673</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.399316352164212</v>
@@ -11087,7 +10937,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.708836114084695</v>
+        <v>1.707387415373935</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.6001469752271</v>
@@ -11176,7 +11026,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.709845966936191</v>
+        <v>1.706453336389604</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.511070973009959</v>
@@ -11265,7 +11115,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.657792102396693</v>
+        <v>1.659584880297921</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.383888264071879</v>
@@ -11354,7 +11204,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.649524960454413</v>
+        <v>1.650802454764157</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.440458447705879</v>
@@ -11443,7 +11293,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.599458919388525</v>
+        <v>1.608612492993398</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.433725476233071</v>
@@ -11532,7 +11382,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.605883423683814</v>
+        <v>1.614243107044474</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.304318940455977</v>
@@ -11621,7 +11471,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.615988682040273</v>
+        <v>1.629691659392153</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.397926323678307</v>
@@ -11710,7 +11560,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.591017217780316</v>
+        <v>1.606037875287248</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.143199873663262</v>
@@ -11799,7 +11649,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.629265752506242</v>
+        <v>1.641897521199038</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.409000328016037</v>
@@ -11888,7 +11738,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.628415938164802</v>
+        <v>1.637860633403532</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.43417318310481</v>
@@ -11977,7 +11827,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.628634587563404</v>
+        <v>1.637003458155633</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.34674419277579</v>
@@ -12066,7 +11916,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.578337896368192</v>
+        <v>1.591139930014575</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.379403517674931</v>
@@ -12155,7 +12005,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.573944574433298</v>
+        <v>1.588147703589539</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.369432142963098</v>
@@ -12244,7 +12094,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.580585172522797</v>
+        <v>1.593322007177007</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.326060702278903</v>
@@ -12333,7 +12183,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.614640832799975</v>
+        <v>1.624926841300888</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.327382306699425</v>
@@ -12422,7 +12272,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.607468678479753</v>
+        <v>1.619161108485794</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.340193484794274</v>
@@ -12511,7 +12361,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.602556058673133</v>
+        <v>1.615892081093658</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.352436141151987</v>
@@ -12600,7 +12450,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.648023634280489</v>
+        <v>1.656693888351465</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.247501153482013</v>
@@ -12689,7 +12539,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.657558574608503</v>
+        <v>1.66542344265415</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.294838783026514</v>
@@ -12778,7 +12628,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.702789714410847</v>
+        <v>1.700043555782207</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.328169482957884</v>
@@ -13064,7 +12914,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.643048623117805</v>
+        <v>1.666002798619566</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.433075765804649</v>
@@ -13153,7 +13003,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.649135176246365</v>
+        <v>1.669605527810562</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.355152377866027</v>
@@ -13242,7 +13092,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.667445942352543</v>
+        <v>1.687060094894173</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.489316145426816</v>
@@ -13331,7 +13181,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.658406964528891</v>
+        <v>1.661284956049631</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.65146192737278</v>
@@ -13420,7 +13270,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.662487867605294</v>
+        <v>1.656198540218418</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.390091575070783</v>
@@ -13509,7 +13359,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.681363332012333</v>
+        <v>1.65613444987146</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.8783477704271</v>
@@ -13598,7 +13448,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.692606899434515</v>
+        <v>1.659995206463593</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.123371971059776</v>
@@ -13687,7 +13537,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.685251468708943</v>
+        <v>1.649541702731881</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.456986732451476</v>
@@ -13776,7 +13626,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.689973933208939</v>
+        <v>1.652133396571243</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.341676833442648</v>
@@ -13865,7 +13715,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.696931100854384</v>
+        <v>1.650538746153791</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.026359666054905</v>
@@ -13954,7 +13804,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.696918630721788</v>
+        <v>1.640691704046292</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.165845934513617</v>
@@ -14043,7 +13893,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.703772816865955</v>
+        <v>1.640383295424782</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.208415323703485</v>
@@ -14132,7 +13982,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.699194223046771</v>
+        <v>1.632409517422763</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.149931434608429</v>
@@ -14221,7 +14071,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.694286772531589</v>
+        <v>1.628535257847381</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.341712083886739</v>
@@ -14310,7 +14160,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.682360143175569</v>
+        <v>1.616550309308932</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.974883481685161</v>
@@ -14399,7 +14249,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.678561144848755</v>
+        <v>1.611754659768291</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.117852620909502</v>
@@ -14488,7 +14338,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.666234205782007</v>
+        <v>1.596229269568941</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.013375448378447</v>
@@ -14577,7 +14427,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.671537143865746</v>
+        <v>1.59110453693054</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.316471175294827</v>
@@ -14666,7 +14516,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.66074483346044</v>
+        <v>1.588811527323268</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.441209286814705</v>
@@ -14755,7 +14605,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.661135696170253</v>
+        <v>1.592168862934383</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.499286289963583</v>
@@ -14844,7 +14694,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.658511819558763</v>
+        <v>1.590762527985385</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.272279002418137</v>
@@ -14933,7 +14783,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.641704133939022</v>
+        <v>1.576519065076144</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.104687871734018</v>
@@ -15022,7 +14872,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.643291013652114</v>
+        <v>1.585005923578306</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.706073509136934</v>
@@ -15111,7 +14961,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.636653895712026</v>
+        <v>1.573253092611572</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.813537942079134</v>
@@ -15200,7 +15050,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.635326978898711</v>
+        <v>1.571083542957631</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.010538229808312</v>
@@ -15289,7 +15139,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.631193908556785</v>
+        <v>1.562923484976196</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.032280008545838</v>
@@ -15378,7 +15228,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.629757731551186</v>
+        <v>1.551307796321311</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.7920063933473</v>
@@ -15467,7 +15317,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.62984078367544</v>
+        <v>1.55021652667758</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.986988530777336</v>
@@ -15556,7 +15406,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.631188811945947</v>
+        <v>1.544797638811338</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.94668488685821</v>
@@ -15645,7 +15495,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.632246697464947</v>
+        <v>1.543868494318193</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.939652830363553</v>
@@ -15734,7 +15584,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.623040319589713</v>
+        <v>1.529976584587313</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.870417323713947</v>
@@ -15823,7 +15673,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.627900213274543</v>
+        <v>1.536905007683506</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.910406496916019</v>
@@ -15912,7 +15762,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.638503111416408</v>
+        <v>1.542223131174296</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.543301327659451</v>
@@ -16001,7 +15851,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.633195273115114</v>
+        <v>1.540293781301787</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.923205791525595</v>
@@ -16090,7 +15940,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.631551105254897</v>
+        <v>1.535492146933388</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.953740622711848</v>
@@ -16179,7 +16029,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.624886819746419</v>
+        <v>1.523862288413505</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.810213689889338</v>
@@ -16268,7 +16118,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.649263876686128</v>
+        <v>1.544531205444553</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.197483836622926</v>
@@ -16357,7 +16207,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.656540975961928</v>
+        <v>1.542903583115378</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.556689399506196</v>
@@ -16446,7 +16296,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.648092873518709</v>
+        <v>1.537638828872977</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.288583226608762</v>
@@ -16535,7 +16385,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.646937808533753</v>
+        <v>1.542661692612735</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.361538763442491</v>
@@ -16624,7 +16474,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.645846951088705</v>
+        <v>1.543248435821032</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.082155514941191</v>
@@ -16713,7 +16563,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.648703562860044</v>
+        <v>1.551456877313627</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.170526456623922</v>
@@ -16802,7 +16652,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.648556041377246</v>
+        <v>1.555361878069455</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.444968209510432</v>
@@ -16891,7 +16741,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.658585424155008</v>
+        <v>1.567386832466191</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.480677552126367</v>
@@ -16980,7 +16830,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.642910470769902</v>
+        <v>1.548803384494783</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.395422427763964</v>
@@ -17069,7 +16919,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.656293916761195</v>
+        <v>1.566932125605143</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.012594096878168</v>
@@ -17158,7 +17008,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.660910362701616</v>
+        <v>1.572294248828068</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.377122327034513</v>
@@ -17247,7 +17097,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.65482004167383</v>
+        <v>1.572889053599638</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.930805364032413</v>
@@ -17336,7 +17186,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.658856413781709</v>
+        <v>1.575795204074413</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.378417338482704</v>
@@ -17425,7 +17275,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.663378289810441</v>
+        <v>1.583842099059255</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.275549291388145</v>
@@ -17514,7 +17364,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.643598535934623</v>
+        <v>1.574605874953941</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.23388176712303</v>
@@ -17603,7 +17453,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.641793961357037</v>
+        <v>1.569246571000668</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.862676274418583</v>
@@ -17692,7 +17542,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.62275314390091</v>
+        <v>1.564929519957436</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.915685943002952</v>
@@ -17781,7 +17631,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.634969640195734</v>
+        <v>1.575644458369328</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.061778871100832</v>
@@ -17870,7 +17720,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.63178913015278</v>
+        <v>1.569598824259131</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.896124119956245</v>
@@ -17959,7 +17809,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.628629050756501</v>
+        <v>1.573068934689367</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.63579550976201</v>
@@ -18048,7 +17898,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.62927090445914</v>
+        <v>1.568042724024437</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.231040828148052</v>
@@ -18137,7 +17987,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.634802015773949</v>
+        <v>1.574250455495102</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.182103962204204</v>
@@ -18226,7 +18076,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.637364586819599</v>
+        <v>1.58013529325791</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.855784986402158</v>
@@ -18315,7 +18165,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.636325819917815</v>
+        <v>1.584036187598928</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.986180915830527</v>
@@ -18404,7 +18254,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.632484679931642</v>
+        <v>1.577646776500238</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.027886344650917</v>
@@ -18493,7 +18343,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.6328675380266</v>
+        <v>1.577468939709376</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.833475639491434</v>
@@ -18582,7 +18432,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.64303906810271</v>
+        <v>1.582330000148125</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.77506681343447</v>
@@ -18671,7 +18521,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.644478459385103</v>
+        <v>1.583667493642604</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.095376688093995</v>
@@ -18760,7 +18610,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.65287076663379</v>
+        <v>1.591192933815406</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.139731553489941</v>
@@ -18849,7 +18699,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.68053903565919</v>
+        <v>1.612229219421761</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.753435403053362</v>
@@ -18938,7 +18788,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.686756249072362</v>
+        <v>1.625411068232423</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.008080668721107</v>
@@ -19027,7 +18877,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.695313080903633</v>
+        <v>1.629099311338305</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.289948986188609</v>
@@ -19313,7 +19163,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.802234980376628</v>
+        <v>1.798909024660469</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.71190317914031</v>
@@ -19402,7 +19252,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.809543716442352</v>
+        <v>1.798952331166908</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.776976798887505</v>
@@ -19491,7 +19341,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.811297793468486</v>
+        <v>1.803933834937956</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.738369537392515</v>
@@ -19580,7 +19430,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.820536598776612</v>
+        <v>1.801174376533225</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.4708675866355</v>
@@ -19669,7 +19519,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.823551350529689</v>
+        <v>1.80545264174724</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.650440768675067</v>
@@ -19758,7 +19608,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.85815840666043</v>
+        <v>1.82749642358256</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.409522144321036</v>
@@ -19847,7 +19697,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.835972981057714</v>
+        <v>1.801174084227134</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.473348668645889</v>
@@ -19936,7 +19786,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.82333316223726</v>
+        <v>1.78656953071044</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.762272177821412</v>
@@ -20025,7 +19875,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.815358090420885</v>
+        <v>1.781989632985888</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.081823849557434</v>
@@ -20114,7 +19964,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.81456190311191</v>
+        <v>1.764944165509367</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.638697342537254</v>
@@ -20203,7 +20053,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.809033605685743</v>
+        <v>1.755197513496373</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.564922658167161</v>
@@ -20292,7 +20142,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.798378714427413</v>
+        <v>1.74630228956906</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.810581640016314</v>
@@ -20381,7 +20231,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.792641666721812</v>
+        <v>1.741620363902167</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.564669941043215</v>
@@ -20470,7 +20320,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.782618538888539</v>
+        <v>1.724670141793639</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.763082559072179</v>
@@ -20559,7 +20409,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.782197064912229</v>
+        <v>1.719610980600717</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.948046428683684</v>
@@ -20648,7 +20498,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.778375253500567</v>
+        <v>1.717303330339955</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.784410416140531</v>
@@ -20737,7 +20587,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.765575969938732</v>
+        <v>1.704164246400921</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.658729055638954</v>
@@ -20826,7 +20676,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.783259665610929</v>
+        <v>1.717370875830759</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.143805526738155</v>
@@ -20915,7 +20765,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.774414683542048</v>
+        <v>1.714295060797037</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.081444731737245</v>
@@ -21004,7 +20854,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.775773617012833</v>
+        <v>1.710953258569425</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.97756536911706</v>
@@ -21093,7 +20943,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.776975455037164</v>
+        <v>1.715062058811684</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.928523649444228</v>
@@ -21182,7 +21032,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.77325768540944</v>
+        <v>1.719016270018129</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.382855814695972</v>
@@ -21271,7 +21121,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.773321279761286</v>
+        <v>1.724608718307598</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.966382838507938</v>
@@ -21360,7 +21210,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.778553419645938</v>
+        <v>1.721428740906112</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.318030966346237</v>
@@ -21449,7 +21299,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.771889036408389</v>
+        <v>1.722743434082159</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.980946921373974</v>
@@ -21538,7 +21388,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.769255386401989</v>
+        <v>1.715071201950432</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.037943881278968</v>
@@ -21627,7 +21477,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.778116035772959</v>
+        <v>1.712808358646986</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.160988727253587</v>
@@ -21716,7 +21566,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.784434368510668</v>
+        <v>1.717063206992736</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.311142723001755</v>
@@ -21805,7 +21655,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.788081996341768</v>
+        <v>1.716207530997382</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.5325696123544</v>
@@ -21894,7 +21744,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.778500698533952</v>
+        <v>1.703075518727985</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.281680405161199</v>
@@ -21983,7 +21833,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.771467276876605</v>
+        <v>1.691179682340105</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.481788905953368</v>
@@ -22072,7 +21922,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.77092152632013</v>
+        <v>1.69205706512246</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.262458676654218</v>
@@ -22161,7 +22011,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.770269416542823</v>
+        <v>1.689613627025985</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.889578676269512</v>
@@ -22250,7 +22100,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.766714514695065</v>
+        <v>1.688262286590073</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.001725582335233</v>
@@ -22339,7 +22189,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.76376872188357</v>
+        <v>1.686659645370938</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.407808721340771</v>
@@ -22428,7 +22278,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.765063069253846</v>
+        <v>1.683975551231481</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.028998496338109</v>
@@ -22517,7 +22367,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.775210184874815</v>
+        <v>1.685546090031532</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.401485815450837</v>
@@ -22606,7 +22456,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.780684254657836</v>
+        <v>1.684693498420643</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.736795439176426</v>
@@ -22695,7 +22545,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.771866172620654</v>
+        <v>1.683644331870029</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.716500379583996</v>
@@ -22784,7 +22634,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.77609726406486</v>
+        <v>1.690423726419832</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.235131415970533</v>
@@ -22873,7 +22723,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.777702282318061</v>
+        <v>1.697375087226582</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.380856383165423</v>
@@ -22962,7 +22812,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.763297679823136</v>
+        <v>1.690290443758058</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.438581000962466</v>
@@ -23051,7 +22901,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.761822476633034</v>
+        <v>1.693868144014989</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.888198921017552</v>
@@ -23140,7 +22990,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.767351252048073</v>
+        <v>1.70268784500558</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.841282650145506</v>
@@ -23229,7 +23079,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.766434697609123</v>
+        <v>1.704347375226874</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.658274430794873</v>
@@ -23318,7 +23168,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.76929244389959</v>
+        <v>1.708980864379079</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.993742313172178</v>
@@ -23407,7 +23257,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.778398152686184</v>
+        <v>1.717157596207797</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.182192932558847</v>
@@ -23496,7 +23346,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.765228528438477</v>
+        <v>1.709137098356195</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.475196701845412</v>
@@ -23585,7 +23435,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.763893262520167</v>
+        <v>1.709138224135226</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.937466367655106</v>
@@ -23674,7 +23524,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.767931247067916</v>
+        <v>1.717893001741805</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.034071381099957</v>
@@ -23763,7 +23613,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.758053148104647</v>
+        <v>1.711864323627875</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.794209771187567</v>
@@ -23852,7 +23702,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.760471723246343</v>
+        <v>1.71552031990959</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.081271183848605</v>
@@ -23941,7 +23791,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.754918335348811</v>
+        <v>1.718434711869824</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4.058064659850054</v>
@@ -24030,7 +23880,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.759539879303288</v>
+        <v>1.716301266685406</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.887287385881999</v>
@@ -24119,7 +23969,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.759240963975392</v>
+        <v>1.713974393713476</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4.106672690471248</v>
@@ -24208,7 +24058,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.75634385011508</v>
+        <v>1.713085871890061</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.977514033521049</v>
@@ -24297,7 +24147,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.76641912081532</v>
+        <v>1.708344368240009</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.327725621974022</v>
@@ -24386,7 +24236,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.763341903247175</v>
+        <v>1.703570705101795</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.521864215308792</v>
@@ -24475,7 +24325,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.767006684459796</v>
+        <v>1.706557840288611</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.210767896442141</v>
@@ -24564,7 +24414,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.754308847846007</v>
+        <v>1.694003392490459</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.0402227714249</v>
@@ -24653,7 +24503,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.753842737860561</v>
+        <v>1.692776309422962</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.34906249771057</v>
@@ -24742,7 +24592,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.75450245900739</v>
+        <v>1.691150367238651</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.085727367524076</v>
@@ -24831,7 +24681,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.760169508681195</v>
+        <v>1.693797716093887</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.058005074169272</v>
@@ -24920,7 +24770,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.759686031938841</v>
+        <v>1.686885540811007</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.257620220536588</v>
@@ -25009,7 +24859,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.756015666830584</v>
+        <v>1.681438846729204</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.415086938850879</v>
@@ -25098,7 +24948,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.765714415897056</v>
+        <v>1.685106956695016</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.267979971748656</v>
@@ -25187,7 +25037,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.763555594607731</v>
+        <v>1.684588880739526</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.540730561155856</v>
@@ -25276,7 +25126,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.765888436308215</v>
+        <v>1.6865724323553</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.292065050893242</v>
@@ -25562,7 +25412,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.691187768265034</v>
+        <v>1.688144044603227</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.189967026504149</v>
@@ -25651,7 +25501,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.706690426089157</v>
+        <v>1.701588536867488</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.28465553076509</v>
@@ -25740,7 +25590,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.729935701199496</v>
+        <v>1.729556220566587</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.452264170474871</v>
@@ -25829,7 +25679,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.734486862135441</v>
+        <v>1.726937272301774</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.374700458788592</v>
@@ -25918,7 +25768,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.751562490672703</v>
+        <v>1.742627995516624</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.226405563168746</v>
@@ -26007,7 +25857,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.805163432250426</v>
+        <v>1.77819211014148</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.77566105607796</v>
@@ -26096,7 +25946,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.810294480974683</v>
+        <v>1.777141298218165</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.022515002169643</v>
@@ -26185,7 +26035,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.816156838789296</v>
+        <v>1.784927431425852</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.322379109093303</v>
@@ -26274,7 +26124,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.804179833926246</v>
+        <v>1.767566840997729</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.28937093934015</v>
@@ -26363,7 +26213,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.792830836621876</v>
+        <v>1.753066507477209</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.941058798674773</v>
@@ -26452,7 +26302,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.801732869380693</v>
+        <v>1.765052528041849</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.986753244158963</v>
@@ -26541,7 +26391,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.806853161817409</v>
+        <v>1.768408980144506</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.293649213340343</v>
@@ -26630,7 +26480,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.803834723239315</v>
+        <v>1.761714468563841</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.228631926155882</v>
@@ -26719,7 +26569,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.793245526392053</v>
+        <v>1.75338833982901</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.830529904052311</v>
@@ -26808,7 +26658,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.797645249287126</v>
+        <v>1.751342154567888</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.566236171837954</v>
@@ -26897,7 +26747,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.800311583666408</v>
+        <v>1.750974012977484</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.339576284971509</v>
@@ -26986,7 +26836,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.798140613713334</v>
+        <v>1.748203639122859</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.600917171350536</v>
@@ -27075,7 +26925,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.793904235690846</v>
+        <v>1.738436218882046</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.141432443877863</v>
@@ -27164,7 +27014,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.785485566699465</v>
+        <v>1.733138267149754</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.293903125953167</v>
@@ -27253,7 +27103,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.786640176395698</v>
+        <v>1.734985411207981</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.36162773681196</v>
@@ -27342,7 +27192,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.791797735343994</v>
+        <v>1.738525640748275</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.266898136722041</v>
@@ -27431,7 +27281,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.793658276812567</v>
+        <v>1.737863723548851</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.320601436815733</v>
@@ -27520,7 +27370,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.789104056485092</v>
+        <v>1.725867316576696</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.270705978446549</v>
@@ -27609,7 +27459,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.784342921466769</v>
+        <v>1.71685395863257</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.235117474010389</v>
@@ -27698,7 +27548,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.782788949208366</v>
+        <v>1.716130838547699</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.57858356774546</v>
@@ -27787,7 +27637,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.78301086145392</v>
+        <v>1.714025744452345</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.762340443326431</v>
@@ -27876,7 +27726,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.779066595197852</v>
+        <v>1.707407094241804</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.096236108257017</v>
@@ -27965,7 +27815,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.777171384886979</v>
+        <v>1.706156697702073</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.583500600653313</v>
@@ -28054,7 +27904,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.786686923430934</v>
+        <v>1.713015735568265</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.294442786463548</v>
@@ -28143,7 +27993,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.778827158558634</v>
+        <v>1.707759392939341</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.427169082970423</v>
@@ -28232,7 +28082,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.768249412903695</v>
+        <v>1.699017261923261</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.821702184064367</v>
@@ -28321,7 +28171,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.770603460935491</v>
+        <v>1.695805611805545</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.888925504036289</v>
@@ -28410,7 +28260,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.781576958218847</v>
+        <v>1.708672408023399</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.837405296520183</v>
@@ -28499,7 +28349,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.79439418987832</v>
+        <v>1.718279382966955</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.271856200464013</v>
@@ -28588,7 +28438,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.793799032004324</v>
+        <v>1.714659963740623</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.927374389845659</v>
@@ -28677,7 +28527,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.792068735763436</v>
+        <v>1.709921212808705</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.856391824440799</v>
@@ -28766,7 +28616,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.789677277443747</v>
+        <v>1.709054086322034</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.45427840165401</v>
@@ -28855,7 +28705,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.785932217191922</v>
+        <v>1.710579275434498</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.372266444038541</v>
@@ -28944,7 +28794,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.782071281040664</v>
+        <v>1.714262854753609</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.817119997070518</v>
@@ -29033,7 +28883,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.782565108029966</v>
+        <v>1.715712691159018</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.026614209104047</v>
@@ -29122,7 +28972,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.779533767920701</v>
+        <v>1.711034279951254</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.989816413201762</v>
@@ -29211,7 +29061,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.783671638447436</v>
+        <v>1.70931393542845</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.171332437251961</v>
@@ -29300,7 +29150,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.786583228351833</v>
+        <v>1.713197100526237</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.858425500523578</v>
@@ -29389,7 +29239,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.792435332177256</v>
+        <v>1.721808977934686</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.277504957047805</v>
@@ -29478,7 +29328,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.7995769242258</v>
+        <v>1.728835366783878</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.372827313539981</v>
@@ -29567,7 +29417,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.80975115277158</v>
+        <v>1.742258983091832</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.546365628550793</v>
@@ -29656,7 +29506,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.814286977310918</v>
+        <v>1.748797840013147</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.456565405730583</v>
@@ -29745,7 +29595,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.815291747985841</v>
+        <v>1.747514204110219</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.48012063208482</v>
@@ -29834,7 +29684,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.808089261187673</v>
+        <v>1.743827694601895</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.375261541721852</v>
@@ -29923,7 +29773,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.805260823545979</v>
+        <v>1.739312074872524</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.357326316211556</v>
@@ -30012,7 +29862,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.806517750771377</v>
+        <v>1.749972665487385</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.529064941758286</v>
@@ -30101,7 +29951,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.81437138925654</v>
+        <v>1.759264678559865</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.497412661257622</v>
@@ -30190,7 +30040,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.812511276698149</v>
+        <v>1.75486219091791</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.268303838060355</v>
@@ -30279,7 +30129,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.817970118764757</v>
+        <v>1.752992903888498</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.442183954142654</v>
@@ -30368,7 +30218,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.819420242148966</v>
+        <v>1.754263973648979</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.62714401871759</v>
@@ -30457,7 +30307,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.825769273182073</v>
+        <v>1.761213830721718</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.611433292158042</v>
@@ -30546,7 +30396,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.825034656190114</v>
+        <v>1.764125290044786</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.710252526081986</v>
@@ -30635,7 +30485,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.819926810623597</v>
+        <v>1.760241121494893</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.509424626811077</v>
@@ -30724,7 +30574,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.819095541100429</v>
+        <v>1.756256091460873</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.25975718621463</v>
@@ -30813,7 +30663,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.812336746992184</v>
+        <v>1.752124244242887</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.605637402873732</v>
@@ -30902,7 +30752,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.807137638134346</v>
+        <v>1.745265958796536</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.478331226090081</v>
@@ -30991,7 +30841,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.803576392320008</v>
+        <v>1.739798737550061</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>4.482896775581994</v>
@@ -31080,7 +30930,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.799378534461409</v>
+        <v>1.736325044355197</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>4.369719197631535</v>
@@ -31169,7 +31019,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.799124307937288</v>
+        <v>1.732372411174126</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>4.655137306508178</v>
@@ -31258,7 +31108,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.804167915282492</v>
+        <v>1.737404801549576</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.926175120749491</v>
@@ -31347,7 +31197,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.80228768060797</v>
+        <v>1.727039833969411</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>4.432527551322363</v>
@@ -31436,7 +31286,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.797090281267189</v>
+        <v>1.72606996612926</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>4.21596497997887</v>
@@ -31525,7 +31375,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.800663787385177</v>
+        <v>1.731310618689393</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.968050267900472</v>
@@ -31811,7 +31661,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.539014461953889</v>
+        <v>1.546130213466606</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.185061441696268</v>
@@ -31900,7 +31750,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.548271785447968</v>
+        <v>1.554810632471593</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.155782366373808</v>
@@ -31989,7 +31839,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.603043283351365</v>
+        <v>1.603132671331992</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.749297263047763</v>
@@ -32078,7 +31928,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.62863470551968</v>
+        <v>1.624282412097254</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.777650834007426</v>
@@ -32167,7 +32017,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.630894447260156</v>
+        <v>1.6286266840471</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.483406353621081</v>
@@ -32256,7 +32106,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.67574348548563</v>
+        <v>1.664219564753721</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.167761413115651</v>
@@ -32345,7 +32195,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.678345809699081</v>
+        <v>1.661051835724336</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.117656257305357</v>
@@ -32434,7 +32284,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.677245306226954</v>
+        <v>1.655292706226111</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.941950677559404</v>
@@ -32523,7 +32373,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.672976255034049</v>
+        <v>1.634654523958641</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.9368837525655</v>
@@ -32612,7 +32462,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.686067690061791</v>
+        <v>1.636996679216731</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.403516225682575</v>
@@ -32701,7 +32551,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.700657531763514</v>
+        <v>1.645281957298458</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.027298456430192</v>
@@ -32790,7 +32640,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.724470992265099</v>
+        <v>1.668408796404689</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.398210233553791</v>
@@ -32879,7 +32729,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.729236026659663</v>
+        <v>1.677145320556733</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.545148021122427</v>
@@ -32968,7 +32818,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.730839764333545</v>
+        <v>1.683234475293022</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.821068413963902</v>
@@ -33057,7 +32907,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.73227346642085</v>
+        <v>1.68191299070928</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.477619411374543</v>
@@ -33146,7 +32996,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.731861689601619</v>
+        <v>1.678695425011572</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.580765773886579</v>
@@ -33235,7 +33085,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.72085676081604</v>
+        <v>1.660171543366796</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.433992347957629</v>
@@ -33324,7 +33174,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.73689869191876</v>
+        <v>1.662681643023829</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.540490711141656</v>
@@ -33413,7 +33263,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.721139986782658</v>
+        <v>1.658277043568764</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.502176740852408</v>
@@ -33502,7 +33352,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.721412184066765</v>
+        <v>1.659793226421541</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.376638099824662</v>
@@ -33591,7 +33441,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.717062064054169</v>
+        <v>1.655704992374432</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.698226631405688</v>
@@ -33680,7 +33530,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.707162557555742</v>
+        <v>1.642958168671652</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.176522872674071</v>
@@ -33769,7 +33619,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.699335618214783</v>
+        <v>1.638207723970149</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.26121431946584</v>
@@ -33858,7 +33708,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.693507729796847</v>
+        <v>1.638443683247787</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.067778936484485</v>
@@ -33947,7 +33797,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.693287152316944</v>
+        <v>1.645419012034244</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.31800761687941</v>
@@ -34036,7 +33886,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.689934244697137</v>
+        <v>1.640822329681425</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.233029689638108</v>
@@ -34125,7 +33975,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.695973747966939</v>
+        <v>1.637462333982695</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.296819307015104</v>
@@ -34214,7 +34064,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.69969458844915</v>
+        <v>1.636014620887663</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.059644260261791</v>
@@ -34303,7 +34153,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.703845849141762</v>
+        <v>1.64011721622352</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.116729871289567</v>
@@ -34392,7 +34242,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.695282596094396</v>
+        <v>1.63110564265173</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.409412881635359</v>
@@ -34481,7 +34331,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.685698309072923</v>
+        <v>1.620029642283505</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.364434991219608</v>
@@ -34570,7 +34420,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.681592378937751</v>
+        <v>1.623609777575505</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.080874788563321</v>
@@ -34659,7 +34509,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.695395818655272</v>
+        <v>1.628039161129976</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.735825098083579</v>
@@ -34748,7 +34598,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.684254668507683</v>
+        <v>1.619442140236078</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.106861783447094</v>
@@ -34837,7 +34687,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.692663443830698</v>
+        <v>1.627450823845557</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.316052366342813</v>
@@ -34926,7 +34776,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.694777468990527</v>
+        <v>1.622476220416261</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.925470056595842</v>
@@ -35015,7 +34865,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.719280250421395</v>
+        <v>1.647047361167096</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.179511688176271</v>
@@ -35104,7 +34954,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.74285061032737</v>
+        <v>1.670450612002542</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.528169918329381</v>
@@ -35193,7 +35043,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.735672104246097</v>
+        <v>1.664087556245907</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.585393557460571</v>
@@ -35282,7 +35132,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.739765518697201</v>
+        <v>1.672422439593486</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.434316638568786</v>
@@ -35371,7 +35221,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.733929948816588</v>
+        <v>1.663264211613404</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.503408327858063</v>
@@ -35460,7 +35310,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.725705202674291</v>
+        <v>1.660441163264077</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.290039403578012</v>
@@ -35549,7 +35399,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.726013768640911</v>
+        <v>1.662082434762316</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.754786900555588</v>
@@ -35638,7 +35488,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.718157856174469</v>
+        <v>1.645117590258191</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.484514347119153</v>
@@ -35727,7 +35577,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.715758056625599</v>
+        <v>1.642957019170523</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.270599296398214</v>
@@ -35816,7 +35666,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.703940145593218</v>
+        <v>1.647852846615302</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.61350069399398</v>
@@ -35905,7 +35755,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.703120979085299</v>
+        <v>1.646653358919067</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.563538148689587</v>
@@ -35994,7 +35844,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.700323441199215</v>
+        <v>1.649544503657358</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.47222304347195</v>
@@ -36083,7 +35933,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.712838050181706</v>
+        <v>1.659676617324663</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.705790827967323</v>
@@ -36172,7 +36022,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.701644290207034</v>
+        <v>1.645570209309625</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.592811309107311</v>
@@ -36261,7 +36111,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.688952276420292</v>
+        <v>1.642071745602421</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.593337054929535</v>
@@ -36350,7 +36200,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.69180392116129</v>
+        <v>1.647924150366431</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.69460064071741</v>
@@ -36439,7 +36289,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.671897958699228</v>
+        <v>1.629848655367381</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.663886390127875</v>
@@ -36528,7 +36378,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.675054579911804</v>
+        <v>1.626136340019807</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.54374039892565</v>
@@ -36617,7 +36467,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.670701492928049</v>
+        <v>1.61842450813879</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.590859811583933</v>
@@ -36706,7 +36556,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.664680356433823</v>
+        <v>1.620949885218395</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.519737696460195</v>
@@ -36795,7 +36645,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.664874604797121</v>
+        <v>1.61535055100568</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.544779280742658</v>
@@ -36884,7 +36734,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.665858164937126</v>
+        <v>1.61324046748905</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.694621173389028</v>
@@ -36973,7 +36823,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.677593592638539</v>
+        <v>1.626953506493652</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.598191702164837</v>
@@ -37062,7 +36912,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.66689354017216</v>
+        <v>1.61449239401785</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.512284620546209</v>
@@ -37151,7 +37001,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.694515989966387</v>
+        <v>1.627647946236652</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.743312910355737</v>
@@ -37240,7 +37090,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.697365352630378</v>
+        <v>1.631112151425224</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.08907743594149</v>
@@ -37329,7 +37179,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.709282139198702</v>
+        <v>1.638610026587017</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.998336882709805</v>
@@ -37418,7 +37268,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.706413182317563</v>
+        <v>1.635736641492625</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.003588761588391</v>
@@ -37507,7 +37357,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.720014001308894</v>
+        <v>1.64931697816751</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.370804295145487</v>
@@ -37596,7 +37446,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.730082859951354</v>
+        <v>1.64929622733073</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.213012940970648</v>
@@ -37685,7 +37535,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.729644633858488</v>
+        <v>1.653682097725235</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.358837484268677</v>
@@ -37774,7 +37624,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.732634565096331</v>
+        <v>1.655833841505622</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.292671163892801</v>
@@ -38060,7 +37910,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.568495259811367</v>
+        <v>1.594726877873404</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.189899416083249</v>
@@ -38149,7 +37999,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.605122500259759</v>
+        <v>1.62809358614357</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.071676288025564</v>
@@ -38238,7 +38088,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.657770947900618</v>
+        <v>1.684235045741363</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.262831121794544</v>
@@ -38327,7 +38177,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.723746781985435</v>
+        <v>1.744200781568215</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.404590807750343</v>
@@ -38416,7 +38266,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.734450495534377</v>
+        <v>1.756264110713028</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.472431356980612</v>
@@ -38505,7 +38355,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.805890997118294</v>
+        <v>1.815772250116214</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.5407397071281</v>
@@ -38594,7 +38444,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.811731852723556</v>
+        <v>1.81919606699885</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.442360806360385</v>
@@ -38683,7 +38533,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.807744989121495</v>
+        <v>1.815393717818584</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.53698360735557</v>
@@ -38772,7 +38622,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.8085697423604</v>
+        <v>1.816306738899313</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.606509599607934</v>
@@ -38861,7 +38711,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.805584051696674</v>
+        <v>1.813952695512254</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.427357302317893</v>
@@ -38950,7 +38800,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.805134854295856</v>
+        <v>1.814367172155082</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.500631058102817</v>
@@ -39039,7 +38889,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.804797310827712</v>
+        <v>1.815798536212371</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.433832677019492</v>
@@ -39128,7 +38978,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.806195226414343</v>
+        <v>1.812166325634508</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.391127701405963</v>
@@ -39217,7 +39067,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.802187344766367</v>
+        <v>1.808341971988257</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.411457128703468</v>
@@ -39306,7 +39156,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.801597524209393</v>
+        <v>1.802483382377732</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.383185396678842</v>
@@ -39395,7 +39245,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.800223562476259</v>
+        <v>1.798016980308575</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.373781947981196</v>
@@ -39484,7 +39334,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.797865443702153</v>
+        <v>1.792999116911538</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.385176531557021</v>
@@ -39573,7 +39423,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.869338489745225</v>
+        <v>1.845110761757981</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.479817259341435</v>
@@ -39662,7 +39512,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.8569672798281</v>
+        <v>1.836996408953729</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.235915103744825</v>
@@ -39751,7 +39601,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.858431833239329</v>
+        <v>1.835482559628595</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.401804871745084</v>
@@ -39840,7 +39690,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.859727326304727</v>
+        <v>1.836592127917395</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.273032800097017</v>
@@ -39929,7 +39779,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.799137157031507</v>
+        <v>1.794029270536746</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.455954412994934</v>
@@ -40018,7 +39868,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.798085533320131</v>
+        <v>1.791710643540746</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.497308654797202</v>
@@ -40107,7 +39957,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.794185740904852</v>
+        <v>1.782372835141466</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.503812816373307</v>
@@ -40196,7 +40046,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.794144700858377</v>
+        <v>1.782930902319852</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.363146572831725</v>
@@ -40285,7 +40135,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.79785970071758</v>
+        <v>1.786414809548108</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.456416922300041</v>
@@ -40374,7 +40224,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.79888290399437</v>
+        <v>1.786678856360686</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.545746395651198</v>
@@ -40463,7 +40313,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.795889737818476</v>
+        <v>1.782412481887378</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.607014058134655</v>
@@ -40552,7 +40402,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.803857956682759</v>
+        <v>1.788699665525147</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.468323604549291</v>
@@ -40641,7 +40491,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.795353809815205</v>
+        <v>1.781051655213027</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.46826309958903</v>
@@ -40730,7 +40580,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.760469154431959</v>
+        <v>1.7492963031071</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.479759573253341</v>
@@ -40819,7 +40669,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.725745947312681</v>
+        <v>1.728749682460218</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.43638412836672</v>
@@ -40908,7 +40758,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.733536696940444</v>
+        <v>1.735493941269733</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.515927917333487</v>
@@ -40997,7 +40847,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.732094493650604</v>
+        <v>1.735774071134921</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.478174819733489</v>
@@ -41086,7 +40936,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.731373646015613</v>
+        <v>1.732980937891256</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.49988458754202</v>
@@ -41175,7 +41025,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.733760232955423</v>
+        <v>1.730552797051527</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.307061608515678</v>
@@ -41264,7 +41114,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.783557253268299</v>
+        <v>1.769019947404497</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.411498104576853</v>
@@ -41353,7 +41203,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.78299329439906</v>
+        <v>1.767688347410538</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.512620252849106</v>
@@ -41442,7 +41292,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.785158968576465</v>
+        <v>1.772988905163189</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.433164243277821</v>
@@ -41531,7 +41381,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.777073229422439</v>
+        <v>1.76743562088901</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.437683119999292</v>
@@ -41620,7 +41470,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.769748660855231</v>
+        <v>1.75999482036173</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.365495774334037</v>
@@ -41709,7 +41559,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.701497889570794</v>
+        <v>1.704591706236563</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.407943186706865</v>
@@ -41798,7 +41648,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.703102988734138</v>
+        <v>1.707750773809842</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.473203174067708</v>
@@ -41887,7 +41737,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.700988191388897</v>
+        <v>1.70589434413065</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.420704423809884</v>
@@ -41976,7 +41826,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.706289501116008</v>
+        <v>1.712736528971216</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.449961501810012</v>
@@ -42065,7 +41915,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.765569492116669</v>
+        <v>1.759592397030736</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.618673747604336</v>
@@ -42154,7 +42004,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.773082354947468</v>
+        <v>1.760568051665684</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.517500962240696</v>
@@ -42243,7 +42093,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.720779851666498</v>
+        <v>1.715846712558692</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.404516007117837</v>
@@ -42332,7 +42182,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.718948608159653</v>
+        <v>1.716727350529025</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.511439520854923</v>
@@ -42421,7 +42271,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.712579878916893</v>
+        <v>1.715026965981288</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.429524814290063</v>
@@ -42510,7 +42360,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.669112398319438</v>
+        <v>1.677921391755943</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.489487971201429</v>
@@ -42599,7 +42449,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.664394717253481</v>
+        <v>1.675533084691686</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.46476977526663</v>
@@ -42688,7 +42538,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.623003278817373</v>
+        <v>1.63817564805492</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.471911347954633</v>
@@ -42777,7 +42627,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.622761094837531</v>
+        <v>1.635782195884736</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.475089232130806</v>
@@ -42866,7 +42716,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.631685887645808</v>
+        <v>1.644439482464811</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.574715531741743</v>
@@ -42955,7 +42805,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.620279333393448</v>
+        <v>1.632994968164814</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.201104388478099</v>
@@ -43044,7 +42894,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.656759202857145</v>
+        <v>1.667470691055591</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.446057265975909</v>
@@ -43133,7 +42983,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.659857600777053</v>
+        <v>1.670477152992415</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.492321531422365</v>
@@ -43222,7 +43072,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.657884618711814</v>
+        <v>1.665236800477174</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.514737418165986</v>
@@ -43311,7 +43161,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.616424246146738</v>
+        <v>1.626146140508732</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.499567296820735</v>
@@ -43400,7 +43250,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.604638191895219</v>
+        <v>1.620076067924988</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.47685218274021</v>
@@ -43489,7 +43339,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.606863947838838</v>
+        <v>1.624152717513477</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.411152885030333</v>
@@ -43578,7 +43428,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.646138721261782</v>
+        <v>1.661058533901549</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.405186356158227</v>
@@ -43667,7 +43517,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.643350630052722</v>
+        <v>1.656697992498191</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.396918920023251</v>
@@ -43756,7 +43606,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.65049685974071</v>
+        <v>1.65998257098461</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.3415048483274</v>
@@ -43845,7 +43695,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.688521382676509</v>
+        <v>1.692873712430456</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.296118670713709</v>
@@ -43934,7 +43784,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.694457711348324</v>
+        <v>1.69823095142337</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.424374537596544</v>
@@ -44023,7 +43873,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.738244099280202</v>
+        <v>1.736280435050948</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.401627298872438</v>
